--- a/biology/Botanique/Bergeronia_sericea/Bergeronia_sericea.xlsx
+++ b/biology/Botanique/Bergeronia_sericea/Bergeronia_sericea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bergeronia sericea est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Sud. C'est l'unique espèce acceptée du genre Bergeronia (genre monotypique).
-Certains auteurs classent cette espèce dans le genre Muellera sous le nom de Muellera sericea (Micheli) M.J.Silva &amp; A.M.G.Azevedo[3].
+Certains auteurs classent cette espèce dans le genre Muellera sous le nom de Muellera sericea (Micheli) M.J.Silva &amp; A.M.G.Azevedo.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bergeronia sericea Micheli[4]
-Bergeronia sericea[5]
-Muellera sericea (Micheli) M. J. Silva &amp; A. M. G. Azevedo (préféré par GRIN)[4]
-Muellera sericea Bergeronia sericea Micheli, 1883 (préféré par NCBI)[5]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bergeronia sericea Micheli
+Bergeronia sericea
+Muellera sericea (Micheli) M. J. Silva &amp; A. M. G. Azevedo (préféré par GRIN)
+Muellera sericea Bergeronia sericea Micheli, 1883 (préféré par NCBI)</t>
         </is>
       </c>
     </row>
